--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col9a1-Mag.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col9a1-Mag.xlsx
@@ -525,16 +525,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1509656666666667</v>
+        <v>0.107983</v>
       </c>
       <c r="H2">
-        <v>0.452897</v>
+        <v>0.323949</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,28 +549,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.9381496666666668</v>
+        <v>0.232947</v>
       </c>
       <c r="N2">
-        <v>2.814449</v>
+        <v>0.698841</v>
       </c>
       <c r="O2">
-        <v>0.5433136653246862</v>
+        <v>0.2572219815457369</v>
       </c>
       <c r="P2">
-        <v>0.5433136653246862</v>
+        <v>0.2572219815457369</v>
       </c>
       <c r="Q2">
-        <v>0.1416283898614445</v>
+        <v>0.025154315901</v>
       </c>
       <c r="R2">
-        <v>1.274655508753</v>
+        <v>0.226388843109</v>
       </c>
       <c r="S2">
-        <v>0.5433136653246862</v>
+        <v>0.2572219815457369</v>
       </c>
       <c r="T2">
-        <v>0.5433136653246862</v>
+        <v>0.2572219815457369</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,16 +587,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1509656666666667</v>
+        <v>0.107983</v>
       </c>
       <c r="H3">
-        <v>0.452897</v>
+        <v>0.323949</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -611,28 +611,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7885686666666668</v>
+        <v>0.6726793333333333</v>
       </c>
       <c r="N3">
-        <v>2.365706</v>
+        <v>2.018038</v>
       </c>
       <c r="O3">
-        <v>0.4566863346753138</v>
+        <v>0.7427780184542632</v>
       </c>
       <c r="P3">
-        <v>0.4566863346753137</v>
+        <v>0.7427780184542632</v>
       </c>
       <c r="Q3">
-        <v>0.1190467944757778</v>
+        <v>0.07263793245133332</v>
       </c>
       <c r="R3">
-        <v>1.071421150282</v>
+        <v>0.6537413920619999</v>
       </c>
       <c r="S3">
-        <v>0.4566863346753138</v>
+        <v>0.7427780184542632</v>
       </c>
       <c r="T3">
-        <v>0.4566863346753137</v>
+        <v>0.7427780184542632</v>
       </c>
     </row>
   </sheetData>
